--- a/Compression_test_under_air_pressure/height.xlsx
+++ b/Compression_test_under_air_pressure/height.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsw\Documents\GitHub\OV-PAM_model\Compression_test_under_air_pressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB59CDAB-F270-498E-BD7E-E4B5D14BBAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6540A2-96C1-4C6E-B3DE-60F4BAE8C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" xr2:uid="{C93A7F74-292C-45A3-89DB-580FFFD487E7}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="C2:XFD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
